--- a/Code/Results/Cases/Case_1_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.89651182341929</v>
+        <v>19.4296083400938</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.34801116741567</v>
+        <v>8.374397451977321</v>
       </c>
       <c r="E2">
-        <v>47.05681673912582</v>
+        <v>25.48132220474869</v>
       </c>
       <c r="F2">
-        <v>66.95725331421315</v>
+        <v>47.30507581188667</v>
       </c>
       <c r="G2">
-        <v>1.91532164200533</v>
+        <v>3.657740745787851</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.07173997496731</v>
+        <v>11.66502544331799</v>
       </c>
       <c r="M2">
-        <v>17.26085309075023</v>
+        <v>18.04384958489591</v>
       </c>
       <c r="N2">
-        <v>12.53853151531655</v>
+        <v>20.07103629680555</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.66742325500397</v>
+        <v>19.20537247891636</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.695516616655391</v>
+        <v>8.283703690469107</v>
       </c>
       <c r="E3">
-        <v>43.39269615928323</v>
+        <v>23.97780679880245</v>
       </c>
       <c r="F3">
-        <v>61.53689226038686</v>
+        <v>46.08514827313272</v>
       </c>
       <c r="G3">
-        <v>1.946558215362834</v>
+        <v>3.666295870156662</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.97547018808673</v>
+        <v>11.49733031449543</v>
       </c>
       <c r="M3">
-        <v>15.93005312605794</v>
+        <v>17.9172231198017</v>
       </c>
       <c r="N3">
-        <v>12.97032810394195</v>
+        <v>20.16484919806295</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.90226610102768</v>
+        <v>19.07202451056637</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.305029549378446</v>
+        <v>8.231340986535637</v>
       </c>
       <c r="E4">
-        <v>41.10684632113089</v>
+        <v>23.00453649840849</v>
       </c>
       <c r="F4">
-        <v>58.1894795155792</v>
+        <v>45.34269954775912</v>
       </c>
       <c r="G4">
-        <v>1.965386141427093</v>
+        <v>3.671794546835565</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.28432937559856</v>
+        <v>11.39683617571893</v>
       </c>
       <c r="M4">
-        <v>15.0873324885537</v>
+        <v>17.84390406800298</v>
       </c>
       <c r="N4">
-        <v>13.23112363454014</v>
+        <v>20.22468865941824</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.58757856312339</v>
+        <v>19.0188293588224</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.147915609165466</v>
+        <v>8.210852331281316</v>
       </c>
       <c r="E5">
-        <v>40.16305333904621</v>
+        <v>22.59540845639168</v>
       </c>
       <c r="F5">
-        <v>56.81639233250353</v>
+        <v>45.04227397573622</v>
       </c>
       <c r="G5">
-        <v>1.973013130442896</v>
+        <v>3.674097539858077</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.99740776058754</v>
+        <v>11.35654994593969</v>
       </c>
       <c r="M5">
-        <v>14.73670107634589</v>
+        <v>17.81516040125308</v>
       </c>
       <c r="N5">
-        <v>13.33677624177222</v>
+        <v>20.24964054867206</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.53514754020597</v>
+        <v>19.0100670847468</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.121936440811172</v>
+        <v>8.207501875948118</v>
       </c>
       <c r="E6">
-        <v>40.00551524758382</v>
+        <v>22.52672045923709</v>
       </c>
       <c r="F6">
-        <v>56.58775199244261</v>
+        <v>44.99253098545147</v>
       </c>
       <c r="G6">
-        <v>1.974277906121956</v>
+        <v>3.674483721619219</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.94942726817475</v>
+        <v>11.34990194169884</v>
       </c>
       <c r="M6">
-        <v>14.69288313617059</v>
+        <v>17.81045661326005</v>
       </c>
       <c r="N6">
-        <v>13.35429382093379</v>
+        <v>20.25381814398938</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.89803395604304</v>
+        <v>19.07130239370382</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.302903075918753</v>
+        <v>8.23106121291911</v>
       </c>
       <c r="E7">
-        <v>41.09417145570642</v>
+        <v>22.99906938098054</v>
       </c>
       <c r="F7">
-        <v>58.17100253241993</v>
+        <v>45.33863865817002</v>
       </c>
       <c r="G7">
-        <v>1.965489136545225</v>
+        <v>3.671825353237795</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.28048207800997</v>
+        <v>11.39629010738644</v>
       </c>
       <c r="M7">
-        <v>15.08263387618485</v>
+        <v>17.84351180197579</v>
       </c>
       <c r="N7">
-        <v>13.23255048661301</v>
+        <v>20.22502286889866</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.47468985477594</v>
+        <v>19.35142635497798</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.120531706219783</v>
+        <v>8.342445403496946</v>
       </c>
       <c r="E8">
-        <v>45.79869795307314</v>
+        <v>24.97335296492073</v>
       </c>
       <c r="F8">
-        <v>65.08938658667024</v>
+        <v>46.88335624390892</v>
       </c>
       <c r="G8">
-        <v>1.926194205000137</v>
+        <v>3.660639798661002</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.69698276606122</v>
+        <v>11.60671834332674</v>
       </c>
       <c r="M8">
-        <v>16.80678092695054</v>
+        <v>17.99928217366265</v>
       </c>
       <c r="N8">
-        <v>12.68862915836998</v>
+        <v>20.10292096847113</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.83162252449834</v>
+        <v>19.9325911361997</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.09242889883729</v>
+        <v>8.586528661354798</v>
       </c>
       <c r="E9">
-        <v>54.94587918072188</v>
+        <v>28.44490083935823</v>
       </c>
       <c r="F9">
-        <v>78.7861836142573</v>
+        <v>49.94476157392702</v>
       </c>
       <c r="G9">
-        <v>1.843629282737829</v>
+        <v>3.640635450799039</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.37825119583571</v>
+        <v>12.03696584035622</v>
       </c>
       <c r="M9">
-        <v>20.03296954311689</v>
+        <v>18.33891149995984</v>
       </c>
       <c r="N9">
-        <v>11.55861734745292</v>
+        <v>19.88104769582826</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.39821776476751</v>
+        <v>20.37546712568976</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.71272996175259</v>
+        <v>8.780415991974454</v>
       </c>
       <c r="E10">
-        <v>62.09342690054496</v>
+        <v>30.74986890657146</v>
       </c>
       <c r="F10">
-        <v>89.59355031375506</v>
+        <v>52.18799880056635</v>
       </c>
       <c r="G10">
-        <v>1.773478834780843</v>
+        <v>3.627087166531943</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.39289901151027</v>
+        <v>12.36106402615421</v>
       </c>
       <c r="M10">
-        <v>22.41534022585234</v>
+        <v>18.60782969376585</v>
       </c>
       <c r="N10">
-        <v>10.62568789242919</v>
+        <v>19.72847759161008</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.6053003480326</v>
+        <v>20.57962780311637</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.52933464825839</v>
+        <v>8.871519672075125</v>
       </c>
       <c r="E11">
-        <v>65.6600805740493</v>
+        <v>31.745111688737</v>
       </c>
       <c r="F11">
-        <v>94.98575929245678</v>
+        <v>53.20224901820757</v>
       </c>
       <c r="G11">
-        <v>1.736668952025445</v>
+        <v>3.621167037274998</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.3663911809186</v>
+        <v>12.50966034939157</v>
       </c>
       <c r="M11">
-        <v>23.54996328928744</v>
+        <v>18.73404274221526</v>
       </c>
       <c r="N11">
-        <v>10.15010175715411</v>
+        <v>19.66127710290276</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.0755082846375</v>
+        <v>20.65726108996916</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.85934806970177</v>
+        <v>8.906412100436979</v>
       </c>
       <c r="E12">
-        <v>67.09606322858419</v>
+        <v>32.11433174818437</v>
       </c>
       <c r="F12">
-        <v>97.15246626293442</v>
+        <v>53.58504999487188</v>
       </c>
       <c r="G12">
-        <v>1.721518572867313</v>
+        <v>3.618959693189994</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>19.75161700590684</v>
+        <v>12.56604931999865</v>
       </c>
       <c r="M12">
-        <v>23.99544076897024</v>
+        <v>18.78236432112084</v>
       </c>
       <c r="N12">
-        <v>9.95758423048294</v>
+        <v>19.63614227875722</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.97346403945144</v>
+        <v>20.64052808269719</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.78710359643981</v>
+        <v>8.898880283435567</v>
       </c>
       <c r="E13">
-        <v>66.78194883597959</v>
+        <v>32.03515391463768</v>
       </c>
       <c r="F13">
-        <v>96.67879981624287</v>
+        <v>53.50266933934449</v>
       </c>
       <c r="G13">
-        <v>1.724848630573391</v>
+        <v>3.619433558285649</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>19.66769499821186</v>
+        <v>12.55390042174855</v>
       </c>
       <c r="M13">
-        <v>23.89857391530055</v>
+        <v>18.77193444314624</v>
       </c>
       <c r="N13">
-        <v>9.999730209032924</v>
+        <v>19.64154168413844</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.64365550481752</v>
+        <v>20.58600865790637</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.5559842715472</v>
+        <v>8.874382548185238</v>
       </c>
       <c r="E14">
-        <v>65.77614791122025</v>
+        <v>31.77564101988398</v>
       </c>
       <c r="F14">
-        <v>95.16100808461604</v>
+        <v>53.23376988291749</v>
       </c>
       <c r="G14">
-        <v>1.735451350300585</v>
+        <v>3.620984749436335</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.39767640991451</v>
+        <v>12.51429739663465</v>
       </c>
       <c r="M14">
-        <v>23.58621988399287</v>
+        <v>18.73800779543551</v>
       </c>
       <c r="N14">
-        <v>10.13455728330877</v>
+        <v>19.65920300777073</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.44367452578986</v>
+        <v>20.55265394890376</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.41754057112911</v>
+        <v>8.859427489926848</v>
       </c>
       <c r="E15">
-        <v>65.17296951471394</v>
+        <v>31.61568513384571</v>
       </c>
       <c r="F15">
-        <v>94.25007610353484</v>
+        <v>53.06888455916234</v>
       </c>
       <c r="G15">
-        <v>1.741765535028424</v>
+        <v>3.62193937506791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.23481422077051</v>
+        <v>12.4900534511543</v>
       </c>
       <c r="M15">
-        <v>23.39733094630182</v>
+        <v>18.7172945084051</v>
       </c>
       <c r="N15">
-        <v>10.21530149847348</v>
+        <v>19.6700616472859</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.32063646953458</v>
+        <v>20.3621733614043</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.66160009794288</v>
+        <v>8.774518535571163</v>
       </c>
       <c r="E16">
-        <v>61.86940903247504</v>
+        <v>30.68375535140904</v>
       </c>
       <c r="F16">
-        <v>89.25458075543008</v>
+        <v>52.1215569933217</v>
       </c>
       <c r="G16">
-        <v>1.775751263291392</v>
+        <v>3.627478911725154</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.33100009108655</v>
+        <v>12.35137213612204</v>
       </c>
       <c r="M16">
-        <v>22.34279623257451</v>
+        <v>18.5996568690836</v>
       </c>
       <c r="N16">
-        <v>10.65539082917412</v>
+        <v>19.73291328143227</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.64552927248364</v>
+        <v>20.24596309762819</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.22285837306541</v>
+        <v>8.723156390938067</v>
       </c>
       <c r="E17">
-        <v>59.94337065957662</v>
+        <v>30.09839756027127</v>
       </c>
       <c r="F17">
-        <v>86.33992419873337</v>
+        <v>51.5385315646076</v>
       </c>
       <c r="G17">
-        <v>1.795093567989147</v>
+        <v>3.630939157602547</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>17.79532918913049</v>
+        <v>12.2665585973611</v>
       </c>
       <c r="M17">
-        <v>21.713157300926</v>
+        <v>18.52846246371796</v>
       </c>
       <c r="N17">
-        <v>10.90971778684192</v>
+        <v>19.77203218488492</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.26032384972213</v>
+        <v>20.17937951159827</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.97720574896298</v>
+        <v>8.693889020037334</v>
       </c>
       <c r="E18">
-        <v>58.86186988349598</v>
+        <v>29.75669733940934</v>
       </c>
       <c r="F18">
-        <v>84.70355273764085</v>
+        <v>51.2026272017354</v>
       </c>
       <c r="G18">
-        <v>1.805800216618261</v>
+        <v>3.632952305432883</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>17.49189038912948</v>
+        <v>12.21788834390992</v>
       </c>
       <c r="M18">
-        <v>21.35508274951296</v>
+        <v>18.48788050277523</v>
       </c>
       <c r="N18">
-        <v>11.05160419667433</v>
+        <v>19.79474010431233</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.13028693366259</v>
+        <v>20.15688167528618</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.89500221645788</v>
+        <v>8.684027504836525</v>
       </c>
       <c r="E19">
-        <v>58.49943706083537</v>
+        <v>29.64014162690026</v>
       </c>
       <c r="F19">
-        <v>84.15529366520508</v>
+        <v>51.08881104858759</v>
       </c>
       <c r="G19">
-        <v>1.809363256089293</v>
+        <v>3.633637871012703</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.38978911196851</v>
+        <v>12.20143020392536</v>
       </c>
       <c r="M19">
-        <v>21.23437898232529</v>
+        <v>18.47420412932519</v>
       </c>
       <c r="N19">
-        <v>11.09898890051882</v>
+        <v>19.80246443311527</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.71703823978658</v>
+        <v>20.25830770498326</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.26882407175571</v>
+        <v>8.728595712599617</v>
       </c>
       <c r="E20">
-        <v>60.14548252248838</v>
+        <v>30.16122920780915</v>
       </c>
       <c r="F20">
-        <v>86.6457717419199</v>
+        <v>51.60065679471937</v>
       </c>
       <c r="G20">
-        <v>1.793080350743413</v>
+        <v>3.630568441228901</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>17.85182818698449</v>
+        <v>12.27557587995141</v>
       </c>
       <c r="M20">
-        <v>21.7797195028951</v>
+        <v>18.53600344717775</v>
       </c>
       <c r="N20">
-        <v>10.88312428139347</v>
+        <v>19.76784644037353</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.74008006401651</v>
+        <v>20.60201411157177</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.62318830469796</v>
+        <v>8.88156764408817</v>
       </c>
       <c r="E21">
-        <v>66.06875682996389</v>
+        <v>31.85207394158859</v>
       </c>
       <c r="F21">
-        <v>95.60272856725651</v>
+        <v>53.3127896206931</v>
       </c>
       <c r="G21">
-        <v>1.732376285556151</v>
+        <v>3.620528194993109</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.47643271715338</v>
+        <v>12.52592692151062</v>
       </c>
       <c r="M21">
-        <v>23.67743063796371</v>
+        <v>18.74795880799172</v>
       </c>
       <c r="N21">
-        <v>10.09535520782227</v>
+        <v>19.65400700241641</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14898211978046</v>
+        <v>20.8284935758129</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.64270824476682</v>
+        <v>8.983825350790713</v>
       </c>
       <c r="E22">
-        <v>70.49418717000569</v>
+        <v>32.91251930810464</v>
       </c>
       <c r="F22">
-        <v>102.2631660181037</v>
+        <v>54.42418884131107</v>
       </c>
       <c r="G22">
-        <v>1.684930611449905</v>
+        <v>3.614167067593289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.6465947650942</v>
+        <v>12.69021653308949</v>
       </c>
       <c r="M22">
-        <v>25.02174012956353</v>
+        <v>18.88954343922444</v>
       </c>
       <c r="N22">
-        <v>9.501110962414366</v>
+        <v>19.5814259645938</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.38434245335676</v>
+        <v>20.7074695989719</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>14.08021802845982</v>
+        <v>8.929047821214823</v>
       </c>
       <c r="E23">
-        <v>68.05559144097234</v>
+        <v>32.35061735490881</v>
       </c>
       <c r="F23">
-        <v>98.59822592770909</v>
+        <v>53.83182556619604</v>
       </c>
       <c r="G23">
-        <v>1.711291203692427</v>
+        <v>3.617543909533934</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.00675303672718</v>
+        <v>12.60248636718769</v>
       </c>
       <c r="M23">
-        <v>24.28929013825888</v>
+        <v>18.81370743231908</v>
       </c>
       <c r="N23">
-        <v>9.828755533148865</v>
+        <v>19.61999882606781</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.68470038348815</v>
+        <v>20.25272599522516</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.2480230301811</v>
+        <v>8.726135779224322</v>
       </c>
       <c r="E24">
-        <v>60.05402979144938</v>
+        <v>30.1328391245293</v>
       </c>
       <c r="F24">
-        <v>86.50737905634057</v>
+        <v>51.57257217689821</v>
       </c>
       <c r="G24">
-        <v>1.793991783546255</v>
+        <v>3.630735967914227</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>17.82627140237648</v>
+        <v>12.27149888191836</v>
       </c>
       <c r="M24">
-        <v>21.74961505879149</v>
+        <v>18.53259308027322</v>
       </c>
       <c r="N24">
-        <v>10.89516038256614</v>
+        <v>19.76973813629468</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.89335709845163</v>
+        <v>19.7723203567181</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.53128987974597</v>
+        <v>8.517855902493238</v>
       </c>
       <c r="E25">
-        <v>52.44344263653582</v>
+        <v>27.54882624627342</v>
       </c>
       <c r="F25">
-        <v>75.01665738809055</v>
+        <v>49.11584911121955</v>
       </c>
       <c r="G25">
-        <v>1.867026600227581</v>
+        <v>3.64584335243088</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>15.65520125829545</v>
+        <v>11.91896979571501</v>
       </c>
       <c r="M25">
-        <v>19.1684839454078</v>
+        <v>18.24351719036726</v>
       </c>
       <c r="N25">
-        <v>11.87609441403013</v>
+        <v>19.93921716925843</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.4296083400938</v>
+        <v>19.89651182341927</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.374397451977321</v>
+        <v>9.348011167415669</v>
       </c>
       <c r="E2">
-        <v>25.48132220474869</v>
+        <v>47.05681673912588</v>
       </c>
       <c r="F2">
-        <v>47.30507581188667</v>
+        <v>66.95725331421306</v>
       </c>
       <c r="G2">
-        <v>3.657740745787851</v>
+        <v>1.915321642005342</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.66502544331799</v>
+        <v>14.07173997496735</v>
       </c>
       <c r="M2">
-        <v>18.04384958489591</v>
+        <v>17.26085309075021</v>
       </c>
       <c r="N2">
-        <v>20.07103629680555</v>
+        <v>12.53853151531665</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.20537247891636</v>
+        <v>18.66742325500396</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.283703690469107</v>
+        <v>8.695516616655409</v>
       </c>
       <c r="E3">
-        <v>23.97780679880245</v>
+        <v>43.39269615928353</v>
       </c>
       <c r="F3">
-        <v>46.08514827313272</v>
+        <v>61.53689226038703</v>
       </c>
       <c r="G3">
-        <v>3.666295870156662</v>
+        <v>1.9465582153627</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.49733031449543</v>
+        <v>12.97547018808678</v>
       </c>
       <c r="M3">
-        <v>17.9172231198017</v>
+        <v>15.93005312605796</v>
       </c>
       <c r="N3">
-        <v>20.16484919806295</v>
+        <v>12.97032810394191</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07202451056637</v>
+        <v>17.90226610102768</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.231340986535637</v>
+        <v>8.305029549378485</v>
       </c>
       <c r="E4">
-        <v>23.00453649840849</v>
+        <v>41.10684632113127</v>
       </c>
       <c r="F4">
-        <v>45.34269954775912</v>
+        <v>58.18947951557944</v>
       </c>
       <c r="G4">
-        <v>3.671794546835565</v>
+        <v>1.965386141426699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.39683617571893</v>
+        <v>12.2843293755986</v>
       </c>
       <c r="M4">
-        <v>17.84390406800298</v>
+        <v>15.08733248855377</v>
       </c>
       <c r="N4">
-        <v>20.22468865941824</v>
+        <v>13.2311236345401</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.0188293588224</v>
+        <v>17.58757856312342</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.210852331281316</v>
+        <v>8.147915609165487</v>
       </c>
       <c r="E5">
-        <v>22.59540845639168</v>
+        <v>40.16305333904677</v>
       </c>
       <c r="F5">
-        <v>45.04227397573622</v>
+        <v>56.8163923325039</v>
       </c>
       <c r="G5">
-        <v>3.674097539858077</v>
+        <v>1.973013130442764</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.35654994593969</v>
+        <v>11.99740776058763</v>
       </c>
       <c r="M5">
-        <v>17.81516040125308</v>
+        <v>14.73670107634596</v>
       </c>
       <c r="N5">
-        <v>20.24964054867206</v>
+        <v>13.33677624177222</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.0100670847468</v>
+        <v>17.53514754020595</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.207501875948118</v>
+        <v>8.12193644081119</v>
       </c>
       <c r="E6">
-        <v>22.52672045923709</v>
+        <v>40.00551524758366</v>
       </c>
       <c r="F6">
-        <v>44.99253098545147</v>
+        <v>56.58775199244257</v>
       </c>
       <c r="G6">
-        <v>3.674483721619219</v>
+        <v>1.974277906121825</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.34990194169884</v>
+        <v>11.94942726817473</v>
       </c>
       <c r="M6">
-        <v>17.81045661326005</v>
+        <v>14.69288313617058</v>
       </c>
       <c r="N6">
-        <v>20.25381814398938</v>
+        <v>13.35429382093375</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07130239370382</v>
+        <v>17.89803395604305</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.23106121291911</v>
+        <v>8.302903075918833</v>
       </c>
       <c r="E7">
-        <v>22.99906938098054</v>
+        <v>41.09417145570661</v>
       </c>
       <c r="F7">
-        <v>45.33863865817002</v>
+        <v>58.17100253242015</v>
       </c>
       <c r="G7">
-        <v>3.671825353237795</v>
+        <v>1.965489136545367</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.39629010738644</v>
+        <v>12.28048207801002</v>
       </c>
       <c r="M7">
-        <v>17.84351180197579</v>
+        <v>15.0826338761849</v>
       </c>
       <c r="N7">
-        <v>20.22502286889866</v>
+        <v>13.23255048661295</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.35142635497798</v>
+        <v>19.47468985477594</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.342445403496946</v>
+        <v>9.120531706219797</v>
       </c>
       <c r="E8">
-        <v>24.97335296492073</v>
+        <v>45.798697953073</v>
       </c>
       <c r="F8">
-        <v>46.88335624390892</v>
+        <v>65.08938658667033</v>
       </c>
       <c r="G8">
-        <v>3.660639798661002</v>
+        <v>1.926194205000526</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.60671834332674</v>
+        <v>13.69698276606129</v>
       </c>
       <c r="M8">
-        <v>17.99928217366265</v>
+        <v>16.8067809269506</v>
       </c>
       <c r="N8">
-        <v>20.10292096847113</v>
+        <v>12.68862915836995</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.9325911361997</v>
+        <v>22.83162252449833</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.586528661354798</v>
+        <v>11.0924288988373</v>
       </c>
       <c r="E9">
-        <v>28.44490083935823</v>
+        <v>54.94587918072198</v>
       </c>
       <c r="F9">
-        <v>49.94476157392702</v>
+        <v>78.78618361425742</v>
       </c>
       <c r="G9">
-        <v>3.640635450799039</v>
+        <v>1.843629282738083</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.03696584035622</v>
+        <v>16.37825119583572</v>
       </c>
       <c r="M9">
-        <v>18.33891149995984</v>
+        <v>20.03296954311688</v>
       </c>
       <c r="N9">
-        <v>19.88104769582826</v>
+        <v>11.55861734745292</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.37546712568976</v>
+        <v>25.39821776476748</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.780415991974454</v>
+        <v>12.71272996175263</v>
       </c>
       <c r="E10">
-        <v>30.74986890657146</v>
+        <v>62.09342690054501</v>
       </c>
       <c r="F10">
-        <v>52.18799880056635</v>
+        <v>89.59355031375514</v>
       </c>
       <c r="G10">
-        <v>3.627087166531943</v>
+        <v>1.773478834781114</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.36106402615421</v>
+        <v>18.39289901151027</v>
       </c>
       <c r="M10">
-        <v>18.60782969376585</v>
+        <v>22.41534022585234</v>
       </c>
       <c r="N10">
-        <v>19.72847759161008</v>
+        <v>10.62568789242916</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.57962780311637</v>
+        <v>26.60530034803262</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.871519672075125</v>
+        <v>13.52933464825841</v>
       </c>
       <c r="E11">
-        <v>31.745111688737</v>
+        <v>65.66008057404929</v>
       </c>
       <c r="F11">
-        <v>53.20224901820757</v>
+        <v>94.98575929245698</v>
       </c>
       <c r="G11">
-        <v>3.621167037274998</v>
+        <v>1.736668952025509</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.50966034939157</v>
+        <v>19.36639118091867</v>
       </c>
       <c r="M11">
-        <v>18.73404274221526</v>
+        <v>23.54996328928747</v>
       </c>
       <c r="N11">
-        <v>19.66127710290276</v>
+        <v>10.15010175715405</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.65726108996916</v>
+        <v>27.07550828463743</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.906412100436979</v>
+        <v>13.85934806970167</v>
       </c>
       <c r="E12">
-        <v>32.11433174818437</v>
+        <v>67.09606322858389</v>
       </c>
       <c r="F12">
-        <v>53.58504999487188</v>
+        <v>97.15246626293404</v>
       </c>
       <c r="G12">
-        <v>3.618959693189994</v>
+        <v>1.721518572867419</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.56604931999865</v>
+        <v>19.75161700590683</v>
       </c>
       <c r="M12">
-        <v>18.78236432112084</v>
+        <v>23.9954407689702</v>
       </c>
       <c r="N12">
-        <v>19.63614227875722</v>
+        <v>9.957584230483072</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.64052808269719</v>
+        <v>26.9734640394513</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.898880283435567</v>
+        <v>13.78710359643974</v>
       </c>
       <c r="E13">
-        <v>32.03515391463768</v>
+        <v>66.78194883597887</v>
       </c>
       <c r="F13">
-        <v>53.50266933934449</v>
+        <v>96.67879981624199</v>
       </c>
       <c r="G13">
-        <v>3.619433558285649</v>
+        <v>1.724848630573238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.55390042174855</v>
+        <v>19.66769499821179</v>
       </c>
       <c r="M13">
-        <v>18.77193444314624</v>
+        <v>23.89857391530044</v>
       </c>
       <c r="N13">
-        <v>19.64154168413844</v>
+        <v>9.999730209033027</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.58600865790637</v>
+        <v>26.64365550481748</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.874382548185238</v>
+        <v>13.55598427154725</v>
       </c>
       <c r="E14">
-        <v>31.77564101988398</v>
+        <v>65.77614791121992</v>
       </c>
       <c r="F14">
-        <v>53.23376988291749</v>
+        <v>95.16100808461562</v>
       </c>
       <c r="G14">
-        <v>3.620984749436335</v>
+        <v>1.735451350300526</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.51429739663465</v>
+        <v>19.39767640991444</v>
       </c>
       <c r="M14">
-        <v>18.73800779543551</v>
+        <v>23.5862198839928</v>
       </c>
       <c r="N14">
-        <v>19.65920300777073</v>
+        <v>10.1345572833088</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.55265394890376</v>
+        <v>26.44367452578995</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.859427489926848</v>
+        <v>13.41754057112929</v>
       </c>
       <c r="E15">
-        <v>31.61568513384571</v>
+        <v>65.17296951471417</v>
       </c>
       <c r="F15">
-        <v>53.06888455916234</v>
+        <v>94.25007610353514</v>
       </c>
       <c r="G15">
-        <v>3.62193937506791</v>
+        <v>1.741765535028355</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.4900534511543</v>
+        <v>19.23481422077056</v>
       </c>
       <c r="M15">
-        <v>18.7172945084051</v>
+        <v>23.39733094630191</v>
       </c>
       <c r="N15">
-        <v>19.6700616472859</v>
+        <v>10.21530149847345</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.3621733614043</v>
+        <v>25.32063646953472</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.774518535571163</v>
+        <v>12.66160009794289</v>
       </c>
       <c r="E16">
-        <v>30.68375535140904</v>
+        <v>61.86940903247504</v>
       </c>
       <c r="F16">
-        <v>52.1215569933217</v>
+        <v>89.25458075543023</v>
       </c>
       <c r="G16">
-        <v>3.627478911725154</v>
+        <v>1.775751263291534</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.35137213612204</v>
+        <v>18.33100009108659</v>
       </c>
       <c r="M16">
-        <v>18.5996568690836</v>
+        <v>22.34279623257462</v>
       </c>
       <c r="N16">
-        <v>19.73291328143227</v>
+        <v>10.65539082917412</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.24596309762819</v>
+        <v>24.64552927248362</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.723156390938067</v>
+        <v>12.2228583730654</v>
       </c>
       <c r="E17">
-        <v>30.09839756027127</v>
+        <v>59.94337065957605</v>
       </c>
       <c r="F17">
-        <v>51.5385315646076</v>
+        <v>86.33992419873273</v>
       </c>
       <c r="G17">
-        <v>3.630939157602547</v>
+        <v>1.795093567989246</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.2665585973611</v>
+        <v>17.79532918913038</v>
       </c>
       <c r="M17">
-        <v>18.52846246371796</v>
+        <v>21.71315730092596</v>
       </c>
       <c r="N17">
-        <v>19.77203218488492</v>
+        <v>10.90971778684202</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.17937951159827</v>
+        <v>24.26032384972211</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.693889020037334</v>
+        <v>11.97720574896296</v>
       </c>
       <c r="E18">
-        <v>29.75669733940934</v>
+        <v>58.86186988349574</v>
       </c>
       <c r="F18">
-        <v>51.2026272017354</v>
+        <v>84.70355273764055</v>
       </c>
       <c r="G18">
-        <v>3.632952305432883</v>
+        <v>1.80580021661838</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.21788834390992</v>
+        <v>17.49189038912942</v>
       </c>
       <c r="M18">
-        <v>18.48788050277523</v>
+        <v>21.35508274951291</v>
       </c>
       <c r="N18">
-        <v>19.79474010431233</v>
+        <v>11.05160419667437</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.15688167528618</v>
+        <v>24.13028693366255</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.684027504836525</v>
+        <v>11.89500221645785</v>
       </c>
       <c r="E19">
-        <v>29.64014162690026</v>
+        <v>58.49943706083509</v>
       </c>
       <c r="F19">
-        <v>51.08881104858759</v>
+        <v>84.1552936652047</v>
       </c>
       <c r="G19">
-        <v>3.633637871012703</v>
+        <v>1.809363256089155</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.20143020392536</v>
+        <v>17.38978911196848</v>
       </c>
       <c r="M19">
-        <v>18.47420412932519</v>
+        <v>21.23437898232522</v>
       </c>
       <c r="N19">
-        <v>19.80246443311527</v>
+        <v>11.09898890051888</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.25830770498326</v>
+        <v>24.7170382397865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.728595712599617</v>
+        <v>12.26882407175569</v>
       </c>
       <c r="E20">
-        <v>30.16122920780915</v>
+        <v>60.14548252248812</v>
       </c>
       <c r="F20">
-        <v>51.60065679471937</v>
+        <v>86.6457717419195</v>
       </c>
       <c r="G20">
-        <v>3.630568441228901</v>
+        <v>1.793080350743422</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.27557587995141</v>
+        <v>17.85182818698448</v>
       </c>
       <c r="M20">
-        <v>18.53600344717775</v>
+        <v>21.77971950289503</v>
       </c>
       <c r="N20">
-        <v>19.76784644037353</v>
+        <v>10.88312428139354</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.60201411157177</v>
+        <v>26.74008006401651</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.88156764408817</v>
+        <v>13.6231883046979</v>
       </c>
       <c r="E21">
-        <v>31.85207394158859</v>
+        <v>66.06875682996372</v>
       </c>
       <c r="F21">
-        <v>53.3127896206931</v>
+        <v>95.60272856725646</v>
       </c>
       <c r="G21">
-        <v>3.620528194993109</v>
+        <v>1.732376285556092</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.52592692151062</v>
+        <v>19.47643271715338</v>
       </c>
       <c r="M21">
-        <v>18.74795880799172</v>
+        <v>23.67743063796371</v>
       </c>
       <c r="N21">
-        <v>19.65400700241641</v>
+        <v>10.09535520782227</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.8284935758129</v>
+        <v>28.14898211978042</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.983825350790713</v>
+        <v>14.64270824476677</v>
       </c>
       <c r="E22">
-        <v>32.91251930810464</v>
+        <v>70.4941871700055</v>
       </c>
       <c r="F22">
-        <v>54.42418884131107</v>
+        <v>102.2631660181035</v>
       </c>
       <c r="G22">
-        <v>3.614167067593289</v>
+        <v>1.684930611449777</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.69021653308949</v>
+        <v>20.64659476509413</v>
       </c>
       <c r="M22">
-        <v>18.88954343922444</v>
+        <v>25.02174012956344</v>
       </c>
       <c r="N22">
-        <v>19.5814259645938</v>
+        <v>9.501110962414332</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.7074695989719</v>
+        <v>27.38434245335678</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.929047821214823</v>
+        <v>14.0802180284598</v>
       </c>
       <c r="E23">
-        <v>32.35061735490881</v>
+        <v>68.05559144097224</v>
       </c>
       <c r="F23">
-        <v>53.83182556619604</v>
+        <v>98.59822592770901</v>
       </c>
       <c r="G23">
-        <v>3.617543909533934</v>
+        <v>1.711291203692321</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.60248636718769</v>
+        <v>20.00675303672716</v>
       </c>
       <c r="M23">
-        <v>18.81370743231908</v>
+        <v>24.28929013825888</v>
       </c>
       <c r="N23">
-        <v>19.61999882606781</v>
+        <v>9.82875553314893</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.25272599522516</v>
+        <v>24.68470038348826</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.726135779224322</v>
+        <v>12.24802303018113</v>
       </c>
       <c r="E24">
-        <v>30.1328391245293</v>
+        <v>60.05402979144958</v>
       </c>
       <c r="F24">
-        <v>51.57257217689821</v>
+        <v>86.50737905634101</v>
       </c>
       <c r="G24">
-        <v>3.630735967914227</v>
+        <v>1.793991783545892</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.27149888191836</v>
+        <v>17.82627140237654</v>
       </c>
       <c r="M24">
-        <v>18.53259308027322</v>
+        <v>21.74961505879158</v>
       </c>
       <c r="N24">
-        <v>19.76973813629468</v>
+        <v>10.8951603825661</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.7723203567181</v>
+        <v>21.89335709845161</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.517855902493238</v>
+        <v>10.53128987974594</v>
       </c>
       <c r="E25">
-        <v>27.54882624627342</v>
+        <v>52.44344263653542</v>
       </c>
       <c r="F25">
-        <v>49.11584911121955</v>
+        <v>75.01665738809025</v>
       </c>
       <c r="G25">
-        <v>3.64584335243088</v>
+        <v>1.86702660022746</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.91896979571501</v>
+        <v>15.65520125829543</v>
       </c>
       <c r="M25">
-        <v>18.24351719036726</v>
+        <v>19.16848394540776</v>
       </c>
       <c r="N25">
-        <v>19.93921716925843</v>
+        <v>11.87609441403023</v>
       </c>
       <c r="O25">
         <v>0</v>
